--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,6 @@
     <sheet name="Pyrs" sheetId="19" r:id="rId19"/>
     <sheet name="UobsAge" sheetId="20" r:id="rId20"/>
     <sheet name="UobsWtAge" sheetId="21" r:id="rId21"/>
-    <sheet name="Uobs" sheetId="22" r:id="rId22"/>
-    <sheet name="UobsWt" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">comp_data!$A$1:$DU$59</definedName>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="521">
   <si>
     <t>Number</t>
   </si>
@@ -585,9 +583,6 @@
   </si>
   <si>
     <t>Observation</t>
-  </si>
-  <si>
-    <t>CV</t>
   </si>
   <si>
     <t>Catch</t>
@@ -1538,9 +1533,6 @@
     <t>ATF_wt</t>
   </si>
   <si>
-    <t>Species_1</t>
-  </si>
-  <si>
     <t>Pred</t>
   </si>
   <si>
@@ -1563,12 +1555,6 @@
   </si>
   <si>
     <t>Stomach_proportion_by_weight</t>
-  </si>
-  <si>
-    <t>Pred_length</t>
-  </si>
-  <si>
-    <t>Prey_length</t>
   </si>
   <si>
     <t>ATF_females</t>
@@ -1611,6 +1597,18 @@
   </si>
   <si>
     <t>ATF_bottom_trawl_length_comp</t>
+  </si>
+  <si>
+    <t>Log_sd</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Cindex</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2869,97 +2869,97 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +4468,7 @@
   <dimension ref="A1:AI117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4478,114 +4478,114 @@
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4594,10 +4594,10 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1961</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
       </c>
       <c r="F2">
         <v>6.1568530000000003E-2</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4674,10 +4674,10 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1962</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
       <c r="F3">
         <v>6.1568530000000003E-2</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4754,10 +4754,10 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1963</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
       <c r="F4">
         <v>6.1568530000000003E-2</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4834,10 +4834,10 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1964</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
       <c r="F5">
         <v>6.1568530000000003E-2</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4914,10 +4914,10 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1965</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
       <c r="F6">
         <v>6.1568530000000003E-2</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4994,10 +4994,10 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1966</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
       </c>
       <c r="F7">
         <v>6.1568530000000003E-2</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5074,10 +5074,10 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1967</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
       </c>
       <c r="F8">
         <v>6.1568530000000003E-2</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5154,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1968</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
       </c>
       <c r="F9">
         <v>6.1568530000000003E-2</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5234,10 +5234,10 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1969</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
       </c>
       <c r="F10">
         <v>6.1568530000000003E-2</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5314,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1970</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
       </c>
       <c r="F11">
         <v>6.1568530000000003E-2</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5394,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1971</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
       </c>
       <c r="F12">
         <v>6.1568530000000003E-2</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5474,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1972</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
       </c>
       <c r="F13">
         <v>6.1568530000000003E-2</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5554,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>1973</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
       </c>
       <c r="F14">
         <v>6.1568530000000003E-2</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5634,10 +5634,10 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1974</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
       </c>
       <c r="F15">
         <v>6.1568530000000003E-2</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5714,10 +5714,10 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1975</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
       </c>
       <c r="F16">
         <v>6.1568530000000003E-2</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5794,10 +5794,10 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1976</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
       </c>
       <c r="F17">
         <v>6.1568530000000003E-2</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5874,10 +5874,10 @@
         <v>1</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1977</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
       </c>
       <c r="F18">
         <v>6.1568530000000003E-2</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5954,10 +5954,10 @@
         <v>1</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>1978</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
       </c>
       <c r="F19">
         <v>6.1568530000000003E-2</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6034,10 +6034,10 @@
         <v>1</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>1979</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
       </c>
       <c r="F20">
         <v>6.1568530000000003E-2</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6114,10 +6114,10 @@
         <v>1</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1980</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
       </c>
       <c r="F21">
         <v>6.1568530000000003E-2</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6194,10 +6194,10 @@
         <v>1</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>1981</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
       </c>
       <c r="F22">
         <v>6.1568530000000003E-2</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6274,10 +6274,10 @@
         <v>1</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>1982</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
       </c>
       <c r="F23">
         <v>6.1568530000000003E-2</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6354,10 +6354,10 @@
         <v>1</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>1983</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
       </c>
       <c r="F24">
         <v>6.1568530000000003E-2</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6434,10 +6434,10 @@
         <v>1</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>1984</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
       </c>
       <c r="F25">
         <v>6.1568530000000003E-2</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6514,10 +6514,10 @@
         <v>1</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>1985</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
       </c>
       <c r="F26">
         <v>6.1568530000000003E-2</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6594,10 +6594,10 @@
         <v>1</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>1986</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
       </c>
       <c r="F27">
         <v>6.1568530000000003E-2</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6674,10 +6674,10 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>1987</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
       </c>
       <c r="F28">
         <v>6.1568530000000003E-2</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6754,10 +6754,10 @@
         <v>1</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>1988</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
       </c>
       <c r="F29">
         <v>6.1568530000000003E-2</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6834,10 +6834,10 @@
         <v>1</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>1989</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
       </c>
       <c r="F30">
         <v>6.1568530000000003E-2</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6914,10 +6914,10 @@
         <v>1</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>1990</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
       </c>
       <c r="F31">
         <v>6.1568530000000003E-2</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6994,10 +6994,10 @@
         <v>1</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>1991</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
       </c>
       <c r="F32">
         <v>6.1568530000000003E-2</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7074,10 +7074,10 @@
         <v>1</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>1992</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
       </c>
       <c r="F33">
         <v>6.1568530000000003E-2</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7154,10 +7154,10 @@
         <v>1</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>1993</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
       </c>
       <c r="F34">
         <v>6.1568530000000003E-2</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7234,10 +7234,10 @@
         <v>1</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>1994</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
       </c>
       <c r="F35">
         <v>6.1568530000000003E-2</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7314,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>1995</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
       </c>
       <c r="F36">
         <v>6.1568530000000003E-2</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7394,10 +7394,10 @@
         <v>1</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>1996</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
       </c>
       <c r="F37">
         <v>6.1568530000000003E-2</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7474,10 +7474,10 @@
         <v>1</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>1997</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
       </c>
       <c r="F38">
         <v>6.1568530000000003E-2</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7554,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>1998</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
       </c>
       <c r="F39">
         <v>6.1568530000000003E-2</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7634,10 +7634,10 @@
         <v>1</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>1999</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
       </c>
       <c r="F40">
         <v>6.1568530000000003E-2</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7714,10 +7714,10 @@
         <v>1</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>2000</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
       </c>
       <c r="F41">
         <v>6.1568530000000003E-2</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7794,10 +7794,10 @@
         <v>1</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>2001</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
       </c>
       <c r="F42">
         <v>6.1568530000000003E-2</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7874,10 +7874,10 @@
         <v>1</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>2002</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
       </c>
       <c r="F43">
         <v>6.1568530000000003E-2</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7954,10 +7954,10 @@
         <v>1</v>
       </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>2003</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
       </c>
       <c r="F44">
         <v>6.1568530000000003E-2</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8034,10 +8034,10 @@
         <v>1</v>
       </c>
       <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>2004</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
       </c>
       <c r="F45">
         <v>6.1568530000000003E-2</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8114,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>2005</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
       </c>
       <c r="F46">
         <v>6.1568530000000003E-2</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8194,10 +8194,10 @@
         <v>1</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>2006</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
       </c>
       <c r="F47">
         <v>6.1568530000000003E-2</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8274,10 +8274,10 @@
         <v>1</v>
       </c>
       <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>2007</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
       </c>
       <c r="F48">
         <v>6.1568530000000003E-2</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8354,10 +8354,10 @@
         <v>1</v>
       </c>
       <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>2008</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
       </c>
       <c r="F49">
         <v>6.1568530000000003E-2</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8434,10 +8434,10 @@
         <v>1</v>
       </c>
       <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>2009</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
       </c>
       <c r="F50">
         <v>6.1568530000000003E-2</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8514,10 +8514,10 @@
         <v>1</v>
       </c>
       <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>2010</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
       </c>
       <c r="F51">
         <v>6.1568530000000003E-2</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8594,10 +8594,10 @@
         <v>1</v>
       </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>2011</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
       </c>
       <c r="F52">
         <v>6.1568530000000003E-2</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8674,10 +8674,10 @@
         <v>1</v>
       </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>2012</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
       </c>
       <c r="F53">
         <v>6.1568530000000003E-2</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8754,10 +8754,10 @@
         <v>1</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>2013</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
       </c>
       <c r="F54">
         <v>6.1568530000000003E-2</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8834,10 +8834,10 @@
         <v>1</v>
       </c>
       <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>2014</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
       </c>
       <c r="F55">
         <v>6.1568530000000003E-2</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8914,10 +8914,10 @@
         <v>1</v>
       </c>
       <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>2015</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
       </c>
       <c r="F56">
         <v>6.1568530000000003E-2</v>
@@ -8985,7 +8985,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8994,10 +8994,10 @@
         <v>1</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>2016</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
       </c>
       <c r="F57">
         <v>6.1568530000000003E-2</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -9074,10 +9074,10 @@
         <v>1</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>2017</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
       </c>
       <c r="F58">
         <v>6.1568530000000003E-2</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -9154,10 +9154,10 @@
         <v>1</v>
       </c>
       <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>2018</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
       </c>
       <c r="F59">
         <v>6.1568530000000003E-2</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -9234,10 +9234,10 @@
         <v>1</v>
       </c>
       <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
         <v>1961</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
       </c>
       <c r="F60">
         <v>4.2455550000000002E-2</v>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -9314,10 +9314,10 @@
         <v>1</v>
       </c>
       <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
         <v>1962</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
       </c>
       <c r="F61">
         <v>4.2455550000000002E-2</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -9394,10 +9394,10 @@
         <v>1</v>
       </c>
       <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
         <v>1963</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
       </c>
       <c r="F62">
         <v>4.2455550000000002E-2</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -9474,10 +9474,10 @@
         <v>1</v>
       </c>
       <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
         <v>1964</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
       </c>
       <c r="F63">
         <v>4.2455550000000002E-2</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -9554,10 +9554,10 @@
         <v>1</v>
       </c>
       <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
         <v>1965</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
       </c>
       <c r="F64">
         <v>4.2455550000000002E-2</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -9634,10 +9634,10 @@
         <v>1</v>
       </c>
       <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
         <v>1966</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
       </c>
       <c r="F65">
         <v>4.2455550000000002E-2</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9714,10 +9714,10 @@
         <v>1</v>
       </c>
       <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
         <v>1967</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
       </c>
       <c r="F66">
         <v>4.2455550000000002E-2</v>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -9794,10 +9794,10 @@
         <v>1</v>
       </c>
       <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
         <v>1968</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
       </c>
       <c r="F67">
         <v>4.2455550000000002E-2</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -9874,10 +9874,10 @@
         <v>1</v>
       </c>
       <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
         <v>1969</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
       </c>
       <c r="F68">
         <v>4.2455550000000002E-2</v>
@@ -9945,7 +9945,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -9954,10 +9954,10 @@
         <v>1</v>
       </c>
       <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
         <v>1970</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
       </c>
       <c r="F69">
         <v>4.2455550000000002E-2</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -10034,10 +10034,10 @@
         <v>1</v>
       </c>
       <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
         <v>1971</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
       </c>
       <c r="F70">
         <v>4.2455550000000002E-2</v>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -10114,10 +10114,10 @@
         <v>1</v>
       </c>
       <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
         <v>1972</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
       </c>
       <c r="F71">
         <v>4.2455550000000002E-2</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -10194,10 +10194,10 @@
         <v>1</v>
       </c>
       <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
         <v>1973</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
       </c>
       <c r="F72">
         <v>4.2455550000000002E-2</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -10274,10 +10274,10 @@
         <v>1</v>
       </c>
       <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
         <v>1974</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
       </c>
       <c r="F73">
         <v>4.2455550000000002E-2</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -10354,10 +10354,10 @@
         <v>1</v>
       </c>
       <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
         <v>1975</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
       </c>
       <c r="F74">
         <v>4.2455550000000002E-2</v>
@@ -10425,7 +10425,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -10434,10 +10434,10 @@
         <v>1</v>
       </c>
       <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
         <v>1976</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
       </c>
       <c r="F75">
         <v>4.2455550000000002E-2</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -10514,10 +10514,10 @@
         <v>1</v>
       </c>
       <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
         <v>1977</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
       </c>
       <c r="F76">
         <v>4.2455550000000002E-2</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -10594,10 +10594,10 @@
         <v>1</v>
       </c>
       <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
         <v>1978</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
       </c>
       <c r="F77">
         <v>4.2455550000000002E-2</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -10674,10 +10674,10 @@
         <v>1</v>
       </c>
       <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
         <v>1979</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
       </c>
       <c r="F78">
         <v>4.2455550000000002E-2</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -10754,10 +10754,10 @@
         <v>1</v>
       </c>
       <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
         <v>1980</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
       </c>
       <c r="F79">
         <v>4.2455550000000002E-2</v>
@@ -10825,7 +10825,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10834,10 +10834,10 @@
         <v>1</v>
       </c>
       <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
         <v>1981</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
       </c>
       <c r="F80">
         <v>4.2455550000000002E-2</v>
@@ -10905,7 +10905,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10914,10 +10914,10 @@
         <v>1</v>
       </c>
       <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
         <v>1982</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
       </c>
       <c r="F81">
         <v>4.2455550000000002E-2</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10994,10 +10994,10 @@
         <v>1</v>
       </c>
       <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
         <v>1983</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
       </c>
       <c r="F82">
         <v>4.2455550000000002E-2</v>
@@ -11065,7 +11065,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -11074,10 +11074,10 @@
         <v>1</v>
       </c>
       <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
         <v>1984</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
       </c>
       <c r="F83">
         <v>4.2455550000000002E-2</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -11154,10 +11154,10 @@
         <v>1</v>
       </c>
       <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
         <v>1985</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
       </c>
       <c r="F84">
         <v>4.2455550000000002E-2</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -11234,10 +11234,10 @@
         <v>1</v>
       </c>
       <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>1986</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
       </c>
       <c r="F85">
         <v>4.2455550000000002E-2</v>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -11314,10 +11314,10 @@
         <v>1</v>
       </c>
       <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
         <v>1987</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
       </c>
       <c r="F86">
         <v>4.2455550000000002E-2</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11394,10 +11394,10 @@
         <v>1</v>
       </c>
       <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
         <v>1988</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
       </c>
       <c r="F87">
         <v>4.2455550000000002E-2</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11474,10 +11474,10 @@
         <v>1</v>
       </c>
       <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
         <v>1989</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
       </c>
       <c r="F88">
         <v>4.2455550000000002E-2</v>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11554,10 +11554,10 @@
         <v>1</v>
       </c>
       <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
         <v>1990</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
       </c>
       <c r="F89">
         <v>4.2455550000000002E-2</v>
@@ -11625,7 +11625,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11634,10 +11634,10 @@
         <v>1</v>
       </c>
       <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
         <v>1991</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
       </c>
       <c r="F90">
         <v>4.2455550000000002E-2</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11714,10 +11714,10 @@
         <v>1</v>
       </c>
       <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
         <v>1992</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
       </c>
       <c r="F91">
         <v>4.2455550000000002E-2</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11794,10 +11794,10 @@
         <v>1</v>
       </c>
       <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
         <v>1993</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
       </c>
       <c r="F92">
         <v>4.2455550000000002E-2</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11874,10 +11874,10 @@
         <v>1</v>
       </c>
       <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
         <v>1994</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
       </c>
       <c r="F93">
         <v>4.2455550000000002E-2</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11954,10 +11954,10 @@
         <v>1</v>
       </c>
       <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
         <v>1995</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
       </c>
       <c r="F94">
         <v>4.2455550000000002E-2</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -12034,10 +12034,10 @@
         <v>1</v>
       </c>
       <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
         <v>1996</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
       </c>
       <c r="F95">
         <v>4.2455550000000002E-2</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12114,10 +12114,10 @@
         <v>1</v>
       </c>
       <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
         <v>1997</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
       </c>
       <c r="F96">
         <v>4.2455550000000002E-2</v>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12194,10 +12194,10 @@
         <v>1</v>
       </c>
       <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
         <v>1998</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
       </c>
       <c r="F97">
         <v>4.2455550000000002E-2</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -12274,10 +12274,10 @@
         <v>1</v>
       </c>
       <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
         <v>1999</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
       </c>
       <c r="F98">
         <v>4.2455550000000002E-2</v>
@@ -12345,7 +12345,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -12354,10 +12354,10 @@
         <v>1</v>
       </c>
       <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
         <v>2000</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
       </c>
       <c r="F99">
         <v>4.2455550000000002E-2</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12434,10 +12434,10 @@
         <v>1</v>
       </c>
       <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
         <v>2001</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
       </c>
       <c r="F100">
         <v>4.2455550000000002E-2</v>
@@ -12505,7 +12505,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -12514,10 +12514,10 @@
         <v>1</v>
       </c>
       <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
         <v>2002</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
       </c>
       <c r="F101">
         <v>4.2455550000000002E-2</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -12594,10 +12594,10 @@
         <v>1</v>
       </c>
       <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
         <v>2003</v>
-      </c>
-      <c r="E102">
-        <v>2</v>
       </c>
       <c r="F102">
         <v>4.2455550000000002E-2</v>
@@ -12665,7 +12665,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
         <v>2004</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
       </c>
       <c r="F103">
         <v>4.2455550000000002E-2</v>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12754,10 +12754,10 @@
         <v>1</v>
       </c>
       <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
         <v>2005</v>
-      </c>
-      <c r="E104">
-        <v>2</v>
       </c>
       <c r="F104">
         <v>4.2455550000000002E-2</v>
@@ -12825,7 +12825,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -12834,10 +12834,10 @@
         <v>1</v>
       </c>
       <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
         <v>2006</v>
-      </c>
-      <c r="E105">
-        <v>2</v>
       </c>
       <c r="F105">
         <v>4.2455550000000002E-2</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -12914,10 +12914,10 @@
         <v>1</v>
       </c>
       <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
         <v>2007</v>
-      </c>
-      <c r="E106">
-        <v>2</v>
       </c>
       <c r="F106">
         <v>4.2455550000000002E-2</v>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -12994,10 +12994,10 @@
         <v>1</v>
       </c>
       <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
         <v>2008</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
       </c>
       <c r="F107">
         <v>4.2455550000000002E-2</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -13074,10 +13074,10 @@
         <v>1</v>
       </c>
       <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
         <v>2009</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
       </c>
       <c r="F108">
         <v>4.2455550000000002E-2</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -13154,10 +13154,10 @@
         <v>1</v>
       </c>
       <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
         <v>2010</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
       </c>
       <c r="F109">
         <v>4.2455550000000002E-2</v>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13234,10 +13234,10 @@
         <v>1</v>
       </c>
       <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
         <v>2011</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
       </c>
       <c r="F110">
         <v>4.2455550000000002E-2</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13314,10 +13314,10 @@
         <v>1</v>
       </c>
       <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
         <v>2012</v>
-      </c>
-      <c r="E111">
-        <v>2</v>
       </c>
       <c r="F111">
         <v>4.2455550000000002E-2</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -13394,10 +13394,10 @@
         <v>1</v>
       </c>
       <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
         <v>2013</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
       </c>
       <c r="F112">
         <v>4.2455550000000002E-2</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13474,10 +13474,10 @@
         <v>1</v>
       </c>
       <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
         <v>2014</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
       </c>
       <c r="F113">
         <v>4.2455550000000002E-2</v>
@@ -13545,7 +13545,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -13554,10 +13554,10 @@
         <v>1</v>
       </c>
       <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
         <v>2015</v>
-      </c>
-      <c r="E114">
-        <v>2</v>
       </c>
       <c r="F114">
         <v>4.2455550000000002E-2</v>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -13634,10 +13634,10 @@
         <v>1</v>
       </c>
       <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
         <v>2016</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
       </c>
       <c r="F115">
         <v>4.2455550000000002E-2</v>
@@ -13705,7 +13705,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -13714,10 +13714,10 @@
         <v>1</v>
       </c>
       <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
         <v>2017</v>
-      </c>
-      <c r="E116">
-        <v>2</v>
       </c>
       <c r="F116">
         <v>4.2455550000000002E-2</v>
@@ -13785,7 +13785,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -13794,10 +13794,10 @@
         <v>1</v>
       </c>
       <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
         <v>2018</v>
-      </c>
-      <c r="E117">
-        <v>2</v>
       </c>
       <c r="F117">
         <v>4.2455550000000002E-2</v>
@@ -13870,146 +13870,149 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1E-3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.6E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6.2E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.80800000000000005</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.996</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.999</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
         <v>1</v>
       </c>
@@ -14032,6 +14035,9 @@
         <v>1</v>
       </c>
       <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
     </row>
@@ -14042,112 +14048,115 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
-      </c>
-      <c r="B2">
-        <v>0.35395500000000002</v>
       </c>
       <c r="C2">
         <v>0.35395500000000002</v>
@@ -14204,6 +14213,9 @@
         <v>0.35395500000000002</v>
       </c>
       <c r="U2">
+        <v>0.35395500000000002</v>
+      </c>
+      <c r="V2">
         <v>0.35395500000000002</v>
       </c>
     </row>
@@ -14230,94 +14242,94 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -14485,94 +14497,94 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -14724,26 +14736,33 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4.3119999999999999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2">
         <v>3.1859999999999999</v>
       </c>
     </row>
@@ -14754,10 +14773,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14780,7 +14799,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>520</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14788,7 +14807,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14796,65 +14815,73 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5">
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6">
-        <v>-0.19900000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>2.4969999999999999</v>
+        <v>-0.19900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8">
-        <v>20.512</v>
+        <v>2.4969999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>20.512</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>140</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>17</v>
       </c>
     </row>
@@ -14867,15 +14894,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>144</v>
@@ -15227,94 +15254,94 @@
         <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -21542,8 +21569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21694,7 +21721,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21702,7 +21729,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B20">
         <v>3.8875E-2</v>
@@ -21725,31 +21752,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -21770,31 +21797,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" t="s">
         <v>497</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>498</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>499</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>500</v>
-      </c>
-      <c r="E1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" t="s">
-        <v>502</v>
       </c>
       <c r="G1" t="s">
         <v>174</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -72951,70 +72978,6 @@
       </c>
       <c r="I1765">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E32401"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -73089,7 +73052,7 @@
         <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>94</v>
@@ -73098,7 +73061,7 @@
         <v>90</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>167</v>
@@ -73116,7 +73079,7 @@
         <v>171</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -73186,7 +73149,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -73306,7 +73269,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73337,7 +73300,7 @@
         <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>179</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -73842,8 +73805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73868,15 +73831,15 @@
         <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -73902,7 +73865,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -73928,7 +73891,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -73954,7 +73917,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -73980,7 +73943,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -74006,7 +73969,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -74032,7 +73995,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -74058,7 +74021,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -74084,7 +74047,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -74110,7 +74073,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -74136,7 +74099,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -74162,7 +74125,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -74188,7 +74151,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -74214,7 +74177,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -74240,7 +74203,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -74266,7 +74229,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -74292,7 +74255,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -74318,7 +74281,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -74344,7 +74307,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -74370,7 +74333,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -74396,7 +74359,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -74422,7 +74385,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -74448,7 +74411,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -74474,7 +74437,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -74500,7 +74463,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -74526,7 +74489,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -74552,7 +74515,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -74578,7 +74541,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -74604,7 +74567,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -74630,7 +74593,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -74656,7 +74619,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -74682,7 +74645,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -74708,7 +74671,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -74734,7 +74697,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -74760,7 +74723,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -74786,7 +74749,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -74812,7 +74775,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -74838,7 +74801,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -74864,7 +74827,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -74890,7 +74853,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -74916,7 +74879,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -74942,7 +74905,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -74968,7 +74931,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -74994,7 +74957,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -75020,7 +74983,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -75046,7 +75009,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -75072,7 +75035,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -75098,7 +75061,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -75124,7 +75087,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -75150,7 +75113,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -75176,7 +75139,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -75202,7 +75165,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -75228,7 +75191,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -75254,7 +75217,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -75280,7 +75243,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -75306,7 +75269,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -75332,7 +75295,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -75358,7 +75321,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -75391,8 +75354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75415,7 +75378,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>174</v>
@@ -75424,363 +75387,363 @@
         <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -75798,7 +75761,7 @@
         <v>1984</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -75932,7 +75895,7 @@
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -75950,7 +75913,7 @@
         <v>1987</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -76084,7 +76047,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -76102,7 +76065,7 @@
         <v>1990</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -76236,7 +76199,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -76254,7 +76217,7 @@
         <v>1993</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -76388,7 +76351,7 @@
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -76406,7 +76369,7 @@
         <v>1996</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -76540,7 +76503,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -76558,7 +76521,7 @@
         <v>1999</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -76692,7 +76655,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -76710,7 +76673,7 @@
         <v>2001</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -76844,7 +76807,7 @@
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -76862,7 +76825,7 @@
         <v>2003</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -76996,7 +76959,7 @@
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -77014,7 +76977,7 @@
         <v>2005</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -77148,7 +77111,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -77166,7 +77129,7 @@
         <v>2007</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -77300,7 +77263,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -77318,7 +77281,7 @@
         <v>2009</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -77452,7 +77415,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -77470,7 +77433,7 @@
         <v>2011</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -77604,7 +77567,7 @@
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -77622,7 +77585,7 @@
         <v>2013</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -77756,7 +77719,7 @@
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -77774,7 +77737,7 @@
         <v>2015</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -77908,7 +77871,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -77926,7 +77889,7 @@
         <v>1975</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>159</v>
@@ -78090,7 +78053,7 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -78108,7 +78071,7 @@
         <v>1985</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -78272,7 +78235,7 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -78290,7 +78253,7 @@
         <v>1986</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -78454,7 +78417,7 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -78472,7 +78435,7 @@
         <v>1989</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>74</v>
@@ -78636,7 +78599,7 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -78654,7 +78617,7 @@
         <v>2017</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -78818,7 +78781,7 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -79000,7 +78963,7 @@
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -79182,7 +79145,7 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -79364,7 +79327,7 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -79546,7 +79509,7 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -79728,7 +79691,7 @@
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -79910,7 +79873,7 @@
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -80092,7 +80055,7 @@
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -80274,7 +80237,7 @@
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -80456,7 +80419,7 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -80638,7 +80601,7 @@
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -80820,7 +80783,7 @@
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -81002,7 +80965,7 @@
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -81184,7 +81147,7 @@
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -81366,7 +81329,7 @@
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -81548,7 +81511,7 @@
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -81730,7 +81693,7 @@
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -81912,7 +81875,7 @@
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -82094,7 +82057,7 @@
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -82276,7 +82239,7 @@
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -82458,7 +82421,7 @@
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -82640,7 +82603,7 @@
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -82822,7 +82785,7 @@
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -83004,7 +82967,7 @@
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -83186,7 +83149,7 @@
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -83368,7 +83331,7 @@
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -83550,7 +83513,7 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -83732,7 +83695,7 @@
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -83914,7 +83877,7 @@
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -84096,7 +84059,7 @@
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -84278,7 +84241,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -84460,7 +84423,7 @@
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -84642,7 +84605,7 @@
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -84824,7 +84787,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -85006,7 +84969,7 @@
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -85188,7 +85151,7 @@
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -85370,7 +85333,7 @@
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -85552,7 +85515,7 @@
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -85734,7 +85697,7 @@
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -85916,7 +85879,7 @@
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -86135,72 +86098,72 @@
         <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -86280,7 +86243,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -86360,7 +86323,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -86440,7 +86403,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -86520,7 +86483,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -86600,7 +86563,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -86687,7 +86650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
@@ -86699,7 +86662,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
@@ -86711,99 +86674,99 @@
         <v>174</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -86880,7 +86843,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -86957,7 +86920,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -87034,7 +86997,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -87111,7 +87074,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -87188,7 +87151,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -87265,7 +87228,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -87342,7 +87305,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -87419,7 +87382,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -87496,7 +87459,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -87573,7 +87536,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -87650,7 +87613,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -87727,7 +87690,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -87804,7 +87767,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -87881,7 +87844,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -87958,7 +87921,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -88035,7 +87998,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -88112,7 +88075,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -88189,7 +88152,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -88266,7 +88229,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -88343,7 +88306,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -88420,7 +88383,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -88497,7 +88460,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -88574,7 +88537,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -88651,7 +88614,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -88728,7 +88691,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -88805,7 +88768,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -88882,7 +88845,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -88959,7 +88922,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -89036,7 +88999,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -89113,7 +89076,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -89190,7 +89153,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -89267,7 +89230,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -89344,7 +89307,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -89421,7 +89384,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -89498,7 +89461,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -89575,7 +89538,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -89652,7 +89615,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -89729,7 +89692,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -89806,7 +89769,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -89883,7 +89846,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -89960,7 +89923,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -90037,7 +90000,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -90114,7 +90077,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -90191,7 +90154,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -90268,7 +90231,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -90345,7 +90308,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -90422,7 +90385,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -90499,7 +90462,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -90576,7 +90539,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -90653,7 +90616,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -90730,7 +90693,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -90807,7 +90770,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -90884,7 +90847,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -90961,7 +90924,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -91038,7 +91001,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -91115,7 +91078,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -91192,7 +91155,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -91269,7 +91232,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -91346,7 +91309,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -91423,7 +91386,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -91500,7 +91463,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -91577,7 +91540,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -91654,7 +91617,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -91731,7 +91694,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -91808,7 +91771,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -91885,7 +91848,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -91962,7 +91925,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -92039,7 +92002,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -92116,7 +92079,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -92193,7 +92156,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -92270,7 +92233,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -92347,7 +92310,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -92424,7 +92387,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -92501,7 +92464,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -92578,7 +92541,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -92655,7 +92618,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -92732,7 +92695,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -92809,7 +92772,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -92886,7 +92849,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -92963,7 +92926,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -93040,7 +93003,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -93117,7 +93080,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -93194,7 +93157,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -93271,7 +93234,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -93348,7 +93311,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -93425,7 +93388,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -93502,7 +93465,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -93579,7 +93542,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -93656,7 +93619,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -93733,7 +93696,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -93810,7 +93773,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -93887,7 +93850,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -93964,7 +93927,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -94041,7 +94004,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -94118,7 +94081,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -94195,7 +94158,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -94272,7 +94235,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -94349,7 +94312,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -94426,7 +94389,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -94503,7 +94466,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -94580,7 +94543,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -94657,7 +94620,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -94734,7 +94697,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -94811,7 +94774,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -94888,7 +94851,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -94965,7 +94928,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -95042,7 +95005,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -95119,7 +95082,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -95196,7 +95159,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -95273,7 +95236,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -95350,7 +95313,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -95427,7 +95390,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -95504,7 +95467,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -95581,7 +95544,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -95658,7 +95621,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -95750,7 +95713,7 @@
   <sheetData>
     <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>50</v>
@@ -95762,363 +95725,363 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -96486,7 +96449,7 @@
     </row>
     <row r="3" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -96854,7 +96817,7 @@
     </row>
     <row r="4" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -97222,7 +97185,7 @@
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -97590,7 +97553,7 @@
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -97958,7 +97921,7 @@
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -98326,7 +98289,7 @@
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -98694,7 +98657,7 @@
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -99062,7 +99025,7 @@
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -99430,7 +99393,7 @@
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -99798,7 +99761,7 @@
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -100166,7 +100129,7 @@
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -100534,7 +100497,7 @@
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -100902,7 +100865,7 @@
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -101270,7 +101233,7 @@
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -101638,7 +101601,7 @@
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -102006,7 +101969,7 @@
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -102374,7 +102337,7 @@
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -102742,7 +102705,7 @@
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -103110,7 +103073,7 @@
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -103478,7 +103441,7 @@
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -103846,7 +103809,7 @@
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -104214,7 +104177,7 @@
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -104582,7 +104545,7 @@
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -104950,7 +104913,7 @@
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -105318,7 +105281,7 @@
     </row>
     <row r="27" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -105686,7 +105649,7 @@
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -106054,7 +106017,7 @@
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -106422,7 +106385,7 @@
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -106790,7 +106753,7 @@
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -107158,7 +107121,7 @@
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -107526,7 +107489,7 @@
     </row>
     <row r="33" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -107894,7 +107857,7 @@
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -108262,7 +108225,7 @@
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -108630,7 +108593,7 @@
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -108998,7 +108961,7 @@
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -109366,7 +109329,7 @@
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -109734,7 +109697,7 @@
     </row>
     <row r="39" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -110102,7 +110065,7 @@
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -110470,7 +110433,7 @@
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -110838,7 +110801,7 @@
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -111206,7 +111169,7 @@
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B43">
         <v>1</v>

--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Mn_LatAge" sheetId="15" r:id="rId15"/>
     <sheet name="aLW" sheetId="16" r:id="rId16"/>
     <sheet name="bioenergetics_control" sheetId="17" r:id="rId17"/>
-    <sheet name="Temp_data" sheetId="18" r:id="rId18"/>
+    <sheet name="env_data" sheetId="18" r:id="rId18"/>
     <sheet name="Pyrs" sheetId="19" r:id="rId19"/>
     <sheet name="UobsAge" sheetId="20" r:id="rId20"/>
     <sheet name="UobsWtAge" sheetId="21" r:id="rId21"/>
@@ -14894,8 +14894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86650,8 +86650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117:Y117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -91167,67 +91167,67 @@
         <v>2018</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>218000000</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>251709000</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>144447000</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>174912000</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>164793000</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>137624000</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>92769900</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>59714700</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>48949800</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>54093000</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>43597200</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>49377700</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>40858400</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>32372500</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>23993300</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>21440800</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>18423400</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>23241400</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>14204100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>10986100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>31767200</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -95633,67 +95633,67 @@
         <v>2018</v>
       </c>
       <c r="E117" s="3">
-        <v>0</v>
+        <v>218000000</v>
       </c>
       <c r="F117" s="3">
-        <v>0</v>
+        <v>216638000</v>
       </c>
       <c r="G117" s="3">
-        <v>0</v>
+        <v>106994000</v>
       </c>
       <c r="H117" s="3">
-        <v>0</v>
+        <v>111490000</v>
       </c>
       <c r="I117" s="3">
-        <v>0</v>
+        <v>90372500</v>
       </c>
       <c r="J117" s="3">
-        <v>0</v>
+        <v>64900100</v>
       </c>
       <c r="K117" s="3">
-        <v>0</v>
+        <v>37577200</v>
       </c>
       <c r="L117" s="3">
-        <v>0</v>
+        <v>20745200</v>
       </c>
       <c r="M117" s="3">
-        <v>0</v>
+        <v>14572600</v>
       </c>
       <c r="N117" s="3">
-        <v>0</v>
+        <v>13811000</v>
       </c>
       <c r="O117" s="3">
-        <v>0</v>
+        <v>9566020</v>
       </c>
       <c r="P117" s="3">
-        <v>0</v>
+        <v>9325320</v>
       </c>
       <c r="Q117" s="3">
-        <v>0</v>
+        <v>6645780</v>
       </c>
       <c r="R117" s="3">
-        <v>0</v>
+        <v>4534190</v>
       </c>
       <c r="S117" s="3">
-        <v>0</v>
+        <v>2895190</v>
       </c>
       <c r="T117" s="3">
-        <v>0</v>
+        <v>2230240</v>
       </c>
       <c r="U117" s="3">
-        <v>0</v>
+        <v>1652330</v>
       </c>
       <c r="V117" s="3">
-        <v>0</v>
+        <v>1798290</v>
       </c>
       <c r="W117" s="3">
-        <v>0</v>
+        <v>948742</v>
       </c>
       <c r="X117" s="3">
-        <v>0</v>
+        <v>633421</v>
       </c>
       <c r="Y117" s="3">
-        <v>0</v>
+        <v>1016230</v>
       </c>
     </row>
   </sheetData>

--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -1575,9 +1575,6 @@
     <t>ATF_fishery</t>
   </si>
   <si>
-    <t>BT</t>
-  </si>
-  <si>
     <t>est_sex_ratio</t>
   </si>
   <si>
@@ -1593,9 +1590,6 @@
     <t>ATF_bottom_trawl_age</t>
   </si>
   <si>
-    <t>BT_length</t>
-  </si>
-  <si>
     <t>ATF_bottom_trawl_length_comp</t>
   </si>
   <si>
@@ -1609,6 +1603,12 @@
   </si>
   <si>
     <t>Cindex</t>
+  </si>
+  <si>
+    <t>ATF_BT_survey</t>
+  </si>
+  <si>
+    <t>ATF_BT_survey_length</t>
   </si>
 </sst>
 </file>
@@ -14749,10 +14749,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14799,7 +14799,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -21721,7 +21721,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21729,7 +21729,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B20">
         <v>3.8875E-2</v>
@@ -73079,7 +73079,7 @@
         <v>171</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -73149,7 +73149,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -73300,7 +73300,7 @@
         <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -73834,7 +73834,7 @@
         <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -75743,7 +75743,7 @@
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -75895,7 +75895,7 @@
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -76047,7 +76047,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -76199,7 +76199,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -76351,7 +76351,7 @@
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -76503,7 +76503,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -76655,7 +76655,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -76807,7 +76807,7 @@
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -76959,7 +76959,7 @@
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -77111,7 +77111,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -77263,7 +77263,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -77415,7 +77415,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -77567,7 +77567,7 @@
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -77719,7 +77719,7 @@
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -77871,7 +77871,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -78053,7 +78053,7 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -78235,7 +78235,7 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -78417,7 +78417,7 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -78599,7 +78599,7 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -86068,8 +86068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86323,7 +86323,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -86403,7 +86403,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -86563,7 +86563,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -86650,7 +86650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E117" sqref="E117:Y117"/>
     </sheetView>
   </sheetViews>

--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="523">
   <si>
     <t>Number</t>
   </si>
@@ -1044,9 +1044,6 @@
     <t>Age30</t>
   </si>
   <si>
-    <t>ALK_name</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -1610,6 +1607,15 @@
   <si>
     <t>ATF_BT_survey_length</t>
   </si>
+  <si>
+    <t>Age_transition_index</t>
+  </si>
+  <si>
+    <t>Age_transition_name</t>
+  </si>
+  <si>
+    <t>pop_age_transition_index</t>
+  </si>
 </sst>
 </file>
 
@@ -2869,97 +2875,97 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -4455,7 +4461,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4478,10 +4484,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -4556,36 +4562,36 @@
         <v>322</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4745,7 +4751,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4905,7 +4911,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4985,7 +4991,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5065,7 +5071,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5145,7 +5151,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5225,7 +5231,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5385,7 +5391,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5465,7 +5471,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5545,7 +5551,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5625,7 +5631,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5705,7 +5711,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5785,7 +5791,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5865,7 +5871,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5945,7 +5951,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6025,7 +6031,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6105,7 +6111,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6185,7 +6191,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6265,7 +6271,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6345,7 +6351,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6425,7 +6431,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6505,7 +6511,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6665,7 +6671,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6745,7 +6751,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6825,7 +6831,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6905,7 +6911,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6985,7 +6991,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7065,7 +7071,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7145,7 +7151,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7225,7 +7231,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7305,7 +7311,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7385,7 +7391,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7465,7 +7471,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7545,7 +7551,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7625,7 +7631,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7705,7 +7711,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7785,7 +7791,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7865,7 +7871,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7945,7 +7951,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -8025,7 +8031,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8105,7 +8111,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8185,7 +8191,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8265,7 +8271,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8345,7 +8351,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8425,7 +8431,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8505,7 +8511,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8585,7 +8591,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8665,7 +8671,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8825,7 +8831,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8905,7 +8911,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8985,7 +8991,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -9065,7 +9071,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -9145,7 +9151,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -9225,7 +9231,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -9305,7 +9311,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -9385,7 +9391,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -9465,7 +9471,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -9545,7 +9551,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -9625,7 +9631,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -9705,7 +9711,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9785,7 +9791,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -9865,7 +9871,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -9945,7 +9951,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -10025,7 +10031,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -10105,7 +10111,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -10185,7 +10191,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -10265,7 +10271,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -10345,7 +10351,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -10425,7 +10431,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -10505,7 +10511,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -10585,7 +10591,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -10665,7 +10671,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -10745,7 +10751,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -10825,7 +10831,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10905,7 +10911,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10985,7 +10991,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -11065,7 +11071,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -11145,7 +11151,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -11225,7 +11231,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -11305,7 +11311,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -11385,7 +11391,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11465,7 +11471,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11545,7 +11551,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11625,7 +11631,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11705,7 +11711,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11785,7 +11791,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11865,7 +11871,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11945,7 +11951,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -12025,7 +12031,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -12105,7 +12111,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12185,7 +12191,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12265,7 +12271,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -12345,7 +12351,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -12425,7 +12431,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12505,7 +12511,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -12585,7 +12591,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -12665,7 +12671,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12745,7 +12751,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12825,7 +12831,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -12905,7 +12911,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -12985,7 +12991,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -13065,7 +13071,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -13145,7 +13151,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -13225,7 +13231,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13305,7 +13311,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13385,7 +13391,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -13465,7 +13471,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13545,7 +13551,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -13625,7 +13631,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -13705,7 +13711,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -13785,7 +13791,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -14749,10 +14755,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14799,7 +14805,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15317,31 +15323,31 @@
         <v>322</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -21569,8 +21575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21681,7 +21687,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>522</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -21721,7 +21727,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21729,7 +21735,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20">
         <v>3.8875E-2</v>
@@ -21752,22 +21758,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>174</v>
@@ -21776,7 +21782,7 @@
         <v>182</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -21797,22 +21803,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" t="s">
         <v>495</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>496</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>497</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>498</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>499</v>
-      </c>
-      <c r="F1" t="s">
-        <v>500</v>
       </c>
       <c r="G1" t="s">
         <v>174</v>
@@ -21821,7 +21827,7 @@
         <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -72990,7 +72996,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73043,7 +73049,7 @@
         <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>102</v>
@@ -73052,7 +73058,7 @@
         <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>94</v>
@@ -73061,7 +73067,7 @@
         <v>90</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>167</v>
@@ -73079,7 +73085,7 @@
         <v>171</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -73149,7 +73155,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -73300,7 +73306,7 @@
         <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -73834,7 +73840,7 @@
         <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -75743,7 +75749,7 @@
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -75895,7 +75901,7 @@
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -76047,7 +76053,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -76199,7 +76205,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -76351,7 +76357,7 @@
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -76503,7 +76509,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -76655,7 +76661,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -76807,7 +76813,7 @@
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -76959,7 +76965,7 @@
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -77111,7 +77117,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -77263,7 +77269,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -77415,7 +77421,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -77567,7 +77573,7 @@
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -77719,7 +77725,7 @@
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -77871,7 +77877,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -78053,7 +78059,7 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -78235,7 +78241,7 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -78417,7 +78423,7 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -78599,7 +78605,7 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -86068,7 +86074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -86163,7 +86169,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -86243,7 +86249,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -86323,7 +86329,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -86403,7 +86409,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -86483,7 +86489,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -86563,7 +86569,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -86766,7 +86772,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -86843,7 +86849,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -86920,7 +86926,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -86997,7 +87003,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -87074,7 +87080,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -87151,7 +87157,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -87228,7 +87234,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -87305,7 +87311,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -87382,7 +87388,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -87459,7 +87465,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -87536,7 +87542,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -87613,7 +87619,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -87690,7 +87696,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -87767,7 +87773,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -87844,7 +87850,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -87921,7 +87927,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -87998,7 +88004,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -88075,7 +88081,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -88152,7 +88158,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -88229,7 +88235,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -88306,7 +88312,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -88383,7 +88389,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -88460,7 +88466,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -88537,7 +88543,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -88614,7 +88620,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -88691,7 +88697,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -88768,7 +88774,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -88845,7 +88851,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -88922,7 +88928,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -88999,7 +89005,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -89076,7 +89082,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -89153,7 +89159,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -89230,7 +89236,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -89307,7 +89313,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -89384,7 +89390,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -89461,7 +89467,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -89538,7 +89544,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -89615,7 +89621,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -89692,7 +89698,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -89769,7 +89775,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -89846,7 +89852,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -89923,7 +89929,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -90000,7 +90006,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -90077,7 +90083,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -90154,7 +90160,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -90231,7 +90237,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -90308,7 +90314,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -90385,7 +90391,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -90462,7 +90468,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -90539,7 +90545,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -90616,7 +90622,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -90693,7 +90699,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -90770,7 +90776,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -90847,7 +90853,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -90924,7 +90930,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -91001,7 +91007,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -91078,7 +91084,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -91155,7 +91161,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -91232,7 +91238,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -91309,7 +91315,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -91386,7 +91392,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -91463,7 +91469,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -91540,7 +91546,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -91617,7 +91623,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -91694,7 +91700,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -91771,7 +91777,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -91848,7 +91854,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -91925,7 +91931,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -92002,7 +92008,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -92079,7 +92085,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -92156,7 +92162,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -92233,7 +92239,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -92310,7 +92316,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -92387,7 +92393,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -92464,7 +92470,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -92541,7 +92547,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -92618,7 +92624,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -92695,7 +92701,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -92772,7 +92778,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -92849,7 +92855,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -92926,7 +92932,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -93003,7 +93009,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -93080,7 +93086,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -93157,7 +93163,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -93234,7 +93240,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -93311,7 +93317,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -93388,7 +93394,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -93465,7 +93471,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -93542,7 +93548,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -93619,7 +93625,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -93696,7 +93702,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -93773,7 +93779,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -93850,7 +93856,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -93927,7 +93933,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -94004,7 +94010,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -94081,7 +94087,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -94158,7 +94164,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -94235,7 +94241,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -94312,7 +94318,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -94389,7 +94395,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -94466,7 +94472,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -94543,7 +94549,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -94620,7 +94626,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -94697,7 +94703,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -94774,7 +94780,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -94851,7 +94857,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -94928,7 +94934,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -95005,7 +95011,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -95082,7 +95088,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -95159,7 +95165,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -95236,7 +95242,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -95313,7 +95319,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -95390,7 +95396,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -95467,7 +95473,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -95544,7 +95550,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -95621,7 +95627,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -95706,17 +95712,17 @@
   <dimension ref="A1:DR43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>521</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -95725,363 +95731,363 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -96449,7 +96455,7 @@
     </row>
     <row r="3" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -96817,7 +96823,7 @@
     </row>
     <row r="4" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -97185,7 +97191,7 @@
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -97553,7 +97559,7 @@
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -97921,7 +97927,7 @@
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -98289,7 +98295,7 @@
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -98657,7 +98663,7 @@
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -99025,7 +99031,7 @@
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -99393,7 +99399,7 @@
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -99761,7 +99767,7 @@
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -100129,7 +100135,7 @@
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -100497,7 +100503,7 @@
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -100865,7 +100871,7 @@
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -101233,7 +101239,7 @@
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -101601,7 +101607,7 @@
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -101969,7 +101975,7 @@
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -102337,7 +102343,7 @@
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -102705,7 +102711,7 @@
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -103073,7 +103079,7 @@
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -103441,7 +103447,7 @@
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -103809,7 +103815,7 @@
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -104177,7 +104183,7 @@
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -104545,7 +104551,7 @@
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -104913,7 +104919,7 @@
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -105281,7 +105287,7 @@
     </row>
     <row r="27" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -105649,7 +105655,7 @@
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -106017,7 +106023,7 @@
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -106385,7 +106391,7 @@
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -106753,7 +106759,7 @@
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -107121,7 +107127,7 @@
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -107489,7 +107495,7 @@
     </row>
     <row r="33" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -107857,7 +107863,7 @@
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -108225,7 +108231,7 @@
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -108593,7 +108599,7 @@
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -108961,7 +108967,7 @@
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -109329,7 +109335,7 @@
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -109697,7 +109703,7 @@
     </row>
     <row r="39" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -110065,7 +110071,7 @@
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -110433,7 +110439,7 @@
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -110801,7 +110807,7 @@
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -111169,7 +111175,7 @@
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B43">
         <v>1</v>

--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_arrowtooth_single_species_1961-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -46,27 +46,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="512">
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>data_list Object name</t>
-  </si>
-  <si>
-    <t>Description...3</t>
   </si>
   <si>
     <t>Sheet location</t>
   </si>
   <si>
-    <t>Blank</t>
-  </si>
-  <si>
     <t>Column names</t>
-  </si>
-  <si>
-    <t>Description...7</t>
   </si>
   <si>
     <t>nspp</t>
@@ -75,25 +63,10 @@
     <t>Number of species included in CEATTLE</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>Survey_name</t>
-  </si>
-  <si>
-    <t>Name of survey</t>
-  </si>
-  <si>
     <t>styr</t>
   </si>
   <si>
     <t>Start year of the hindcast</t>
-  </si>
-  <si>
-    <t>Survey_code</t>
-  </si>
-  <si>
-    <t>Index of survey ACROSS species</t>
   </si>
   <si>
     <t>endyr</t>
@@ -102,22 +75,10 @@
     <t>End year of the hindcast</t>
   </si>
   <si>
-    <t>Fishery_name</t>
-  </si>
-  <si>
-    <t>Name of fishery</t>
-  </si>
-  <si>
     <t>projyr</t>
   </si>
   <si>
     <t>End year of the forecast</t>
-  </si>
-  <si>
-    <t>Fishery_code</t>
-  </si>
-  <si>
-    <t>Index of fishery ACROSS species</t>
   </si>
   <si>
     <t>nsex</t>
@@ -141,9 +102,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>sex codes: 0=combined; 1=use female only; 2=use male only</t>
-  </si>
-  <si>
     <t>R_sexr</t>
   </si>
   <si>
@@ -151,9 +109,6 @@
   </si>
   <si>
     <t>Selectivity</t>
-  </si>
-  <si>
-    <t>Selectivity to use for the species: 0 = empirical selectivity provided in srv_emp_sel; 1 = logistic selectivity; 2 = non-parametric selecitivty sensu Ianelli et al 2018; 3 = double logistic</t>
   </si>
   <si>
     <t>nages</t>
@@ -198,12 +153,6 @@
     <t>Weight-at-age (wt) index to use for calculation of each species population derived quantities (SSB, Consumption/Ration, Suitability, etc)</t>
   </si>
   <si>
-    <t>ALK_index</t>
-  </si>
-  <si>
-    <t>Age transition matrix (e.g. Age Length Key or ALK) index to use for derived quantitied</t>
-  </si>
-  <si>
     <t>ssb_wt_index</t>
   </si>
   <si>
@@ -211,18 +160,6 @@
   </si>
   <si>
     <t>Estimate_q</t>
-  </si>
-  <si>
-    <t>Estimate catchability? (0 = no; 1 = yes, 2 = analytical from Ludwig and Walters 1994)</t>
-  </si>
-  <si>
-    <t>pop_alk_index</t>
-  </si>
-  <si>
-    <t>Age transition matrix (e.g. Age Length Key or ALK) index to use for derived quantities of the population (used in length-based predation estimation)</t>
-  </si>
-  <si>
-    <t>log_q_start</t>
   </si>
   <si>
     <t>Starting value or fixed value for catchability</t>
@@ -246,31 +183,10 @@
     <t>Other food in the ecosystem for each species</t>
   </si>
   <si>
-    <t>Estimate_sigma_survey</t>
-  </si>
-  <si>
     <t>Estimate survey variance (0 = use CV from srv_biom, 1 = yes, 2 = analytically estimate following (Ludwig and Walters 1994)</t>
   </si>
   <si>
-    <t>stom_sample_size</t>
-  </si>
-  <si>
-    <t>Sample size of diet data for each species (used when suitMode &gt; 0)</t>
-  </si>
-  <si>
-    <t>Sigma_survey_prior</t>
-  </si>
-  <si>
     <t>Starting value to be used if Estimate_sigma_index = 1</t>
-  </si>
-  <si>
-    <t>srv_control</t>
-  </si>
-  <si>
-    <t>Survey data specifications</t>
-  </si>
-  <si>
-    <t>Estimate_sigma_catch</t>
   </si>
   <si>
     <t>Estimate fishery variance (0 = use CV from srv_biom, 1 = yes, 2 = analytically estimate following (Ludwig and Walters 1994)</t>
@@ -282,46 +198,16 @@
     <t>Survey index in weight (kg) or numbers data</t>
   </si>
   <si>
-    <t>Sigma_catch_prior</t>
-  </si>
-  <si>
     <t>Starting value to be used if Estimate_sigma_catch = 1</t>
-  </si>
-  <si>
-    <t>srv_emp_sel</t>
-  </si>
-  <si>
-    <t>Empirical selectivity for surveys (leave empty if not used)</t>
   </si>
   <si>
     <t>Time_varying_sel</t>
   </si>
   <si>
-    <t>Wether a time-varying selectivity should be estimated for logistic, double logistic selectivity. 0 = no, 1 = random walk from mean selectivity following Dorn 2018, 2 = random effect, 3 = time blocks with no penality</t>
-  </si>
-  <si>
-    <t>srv_comp</t>
-  </si>
-  <si>
-    <t>Survey age or length composition data</t>
-  </si>
-  <si>
     <t>Sel_sd_prior</t>
   </si>
   <si>
-    <t>The sd to use for the random walk of time varying selectivity if set to 1</t>
-  </si>
-  <si>
-    <t>fsh_control</t>
-  </si>
-  <si>
-    <t>Fishery data specifications</t>
-  </si>
-  <si>
     <t>Time_varying_q</t>
-  </si>
-  <si>
-    <t>Wether a time-varying q should be estimated. 0 = no, 1 = random walk from mean selectivity following Dorn 2018, 2 = random effect, 3 = time blocks with no penalty</t>
   </si>
   <si>
     <t>fsh_biom</t>
@@ -336,22 +222,7 @@
     <t>The sd to use for the random walk of time varying q if set to 1</t>
   </si>
   <si>
-    <t>fsh_emp_sel</t>
-  </si>
-  <si>
-    <t>Empirical selectivity for fisheries (leave empty if not used)</t>
-  </si>
-  <si>
     <t>Selectivity_index</t>
-  </si>
-  <si>
-    <t>index to use if selectivitys of different surveys are to be the same</t>
-  </si>
-  <si>
-    <t>fsh_comp</t>
-  </si>
-  <si>
-    <t>Fishery age or length composition data</t>
   </si>
   <si>
     <t>Q_index</t>
@@ -361,9 +232,6 @@
   </si>
   <si>
     <t>age_trans_matrix</t>
-  </si>
-  <si>
-    <t>Age transition matrix (e.g. Age Length Key or ALK) used to convert age to length for length comp data. Can have multiple ALKs for a species specified by ALK_index.</t>
   </si>
   <si>
     <t>age_error</t>
@@ -429,13 +297,7 @@
     <t>Pvalue</t>
   </si>
   <si>
-    <t>This scales the maximum consumption used for ration for each species; Pvalue is in Cmax*fT*Pvalue*Page</t>
-  </si>
-  <si>
     <t>fday</t>
-  </si>
-  <si>
-    <t>Percent of foraging days per year for each species</t>
   </si>
   <si>
     <t>CA</t>
@@ -471,25 +333,10 @@
     <t>CK4</t>
   </si>
   <si>
-    <t>Tyrs</t>
-  </si>
-  <si>
-    <t>Years of bottom temperature data to incorporate into ft specificed by Ceq.</t>
-  </si>
-  <si>
-    <t>Temp_data</t>
-  </si>
-  <si>
     <t>BTempC</t>
   </si>
   <si>
-    <t>Bottom temperature data to incorporate into ft specificed by Ceq. Will use the mean for missing years.</t>
-  </si>
-  <si>
     <t>Pyrs</t>
-  </si>
-  <si>
-    <t>Annual relative foraging rate by age</t>
   </si>
   <si>
     <t>UobsAge</t>
@@ -502,12 +349,6 @@
   </si>
   <si>
     <t>Stomach proportion by weight for each predator, prey, predator age, prey age combination. Can also be year specific by including the column, "Year"</t>
-  </si>
-  <si>
-    <t>Uobs</t>
-  </si>
-  <si>
-    <t>Stomach proportion by numbers for each predator, prey, predator length, prey length combination. Can also be year specific by including the column, "Year"</t>
   </si>
   <si>
     <t>UobsWt</t>
@@ -1616,12 +1457,138 @@
   <si>
     <t>pop_age_transition_index</t>
   </si>
+  <si>
+    <t>Object name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>fleet_control</t>
+  </si>
+  <si>
+    <t>Name of survey or fishery</t>
+  </si>
+  <si>
+    <t>Index of survey/fishery ACROSS species</t>
+  </si>
+  <si>
+    <t>0 = Do not estimate; 1 = Fishery; 2 = Survey</t>
+  </si>
+  <si>
+    <t>index to use if selectivities of different surveys are to be the same</t>
+  </si>
+  <si>
+    <t>Selectivity to use for the species: 0 = empirical selectivity provided in srv_emp_sel; 1 = logistic selectivity; 2 = non-parametric selecitivty sensu Ianelli et al 2018; 3 = double logistic; 4 = descending logistic</t>
+  </si>
+  <si>
+    <t>Wether a time-varying selectivity should be estimated for logistic, double logistic selectivity, or descending logistic. 0 = no, 1 = penalized deviates given sel_sd_prior, 2 = random effect, 3 = time blocks with no penality, 4 = random walk following Dorn, 5 = random walk on ascending portion of double logistic only. If selectivity is set to type = 2 (non-parametric) this value will be the 1st penalty on selectivity.</t>
+  </si>
+  <si>
+    <t>The sd to use for the random walk of time varying selectivity if set to 1. If selectivity is set to type = 2 (non-parametric) this value will be the 2nd penalty on selectivity.</t>
+  </si>
+  <si>
+    <t>Age at which selectivity is non-zero</t>
+  </si>
+  <si>
+    <t>Acuumulation_age_lower</t>
+  </si>
+  <si>
+    <t>Ages below this will be grouped to this age for composition data. For example, if set to 2, comp data for age 2 will include 1 and 2 year olds.</t>
+  </si>
+  <si>
+    <t>Acuumulation_age_upper</t>
+  </si>
+  <si>
+    <t>Ages above this will be grouped to this age for composition data. For example, if set to 9 for a species with 10 ages, comp data for age 9 will include 9 and 10 year olds.</t>
+  </si>
+  <si>
+    <t>Age transition matrix (e.g. growth trajectory) index to use for derived quantities of the population to convert age to length (also used in length-based predation estimation)</t>
+  </si>
+  <si>
+    <t>Age transition matrix (e.g. growth trajectory) index to use for derived quantities to convert age to length</t>
+  </si>
+  <si>
+    <t>Estimate or fix numbers-at-age: 0 = estimate dynamics, 1 = use input numbers-at-age in NbyageFixed, 2 = multiply input numbers-at-age (NbyageFixed) by a single scaling coefficient, 3 = multiply input numbers-at-age (NbyageFixed) by age specific scaling coefficient.</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>Estimate catchability? (0 = fixed at prior; - 1 = Estimate single parameter; - 2 = Estimate single parameter with prior; - 3 = Estimate analytical q  from Ludwig and Walters 1994;  - 4 = Estimate power equation; - 5 - Linear equation log(q_y) = q_mu + beta * index_y)</t>
+  </si>
+  <si>
+    <t>Is sex ration F/(M+F) to be included in the likelihood (assumed normal); 0 = no, 1 = use annual average across ages (uses 2nd age in propF data), 2 = age, and year specific (TBD)</t>
+  </si>
+  <si>
+    <t>Initial value or fixed value for sd of normal likelihood for sex ration. Not yet able to estimate.</t>
+  </si>
+  <si>
+    <t>Variance of q prior: dnorm (log_q, log_q_prior, q_sd_prior)</t>
+  </si>
+  <si>
+    <t>est_M1</t>
+  </si>
+  <si>
+    <t>Estimate residual (multi-species mode) or total natural mortality (single-species mode). 0 = use fixed natural mortality from M1_base, 1 = estimate sex- and age-invariant M1, 2 = sex-specific (two-sex model), age-invariant M1, 3 =   estimate sex- and age-specific M1.</t>
+  </si>
+  <si>
+    <t>Wether a time-varying q should be estimated. 0 = no, 1 = penalized deviate, 2 = random effect, 3 = time blocks with no penalty; 4 = random walk from mean following Dorn 2018 (dnorm(q_y - q_y-1, 0, sigma). If Estimate_q = 5, this determines the environmental index to be used in the equation log(q_y) = q_mu + beta * index_y</t>
+  </si>
+  <si>
+    <t>Survey and fishery data specifications</t>
+  </si>
+  <si>
+    <t>comp_data</t>
+  </si>
+  <si>
+    <t>Survey/fishery age or length composition data. Note if sex is 3, put female composition data then male composition data (similar to SS).</t>
+  </si>
+  <si>
+    <t>emp_sel</t>
+  </si>
+  <si>
+    <t>Empirical/fixed selectivity for surveys and fisheries (leave empty if not used)</t>
+  </si>
+  <si>
+    <t>Age transition matrix (e.g. growth trajectory) used to convert age to length for length comp data. Can have multiple matrices for a species specified by Age_transition_index.</t>
+  </si>
+  <si>
+    <t>Composition weights to be used for multinomial likelihood. These are multiplied. After running model, these will update to McAllister &amp; Ianelli 1997 weights using the harmonic mean.</t>
+  </si>
+  <si>
+    <t>The proportion of future fishing mortality assigned to this fleet</t>
+  </si>
+  <si>
+    <t>sex codes: 0=combined; 1=use female only; 2=use male only; 3 = joint female and male</t>
+  </si>
+  <si>
+    <t>Which environmental index in env_data to use to drive bioenergetics</t>
+  </si>
+  <si>
+    <t>This scales the maximum consumption used for ration for each species; Pvalue is in Cmax*fT*Pvalue*Pyrs</t>
+  </si>
+  <si>
+    <t>Number of foraging days per year for each species</t>
+  </si>
+  <si>
+    <t>env_data</t>
+  </si>
+  <si>
+    <t>Environmental indices such as bottom temperature data to incorporate into ration equation specificed by Ceq and Cindex. Also used to drive catchability if Estimate_q = 5. Will use the mean for missing years. Temperature should be in celcius.</t>
+  </si>
+  <si>
+    <t>Annual relative foraging rate by age. Multiplied by pvalue and fday to scale maximum consumption to the number of days in a year that foraging occurs.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1633,6 +1600,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1658,7 +1632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1667,6 +1641,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1974,32 +1958,32 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2007,19 +1991,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>473</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2027,19 +2014,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,19 +2037,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>473</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2067,19 +2060,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>473</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,19 +2083,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>473</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2107,19 +2106,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>473</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,19 +2129,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>473</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,19 +2152,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>473</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,19 +2175,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>473</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2187,19 +2198,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>473</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,19 +2221,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>473</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>482</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,19 +2244,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>473</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>484</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2247,19 +2267,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
+        <v>486</v>
+      </c>
+      <c r="E14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,19 +2290,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>473</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2287,19 +2313,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>473</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>467</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,19 +2336,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>488</v>
+      </c>
+      <c r="E17" t="s">
+        <v>473</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,19 +2359,22 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>472</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>489</v>
+      </c>
+      <c r="E18" t="s">
+        <v>473</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,19 +2382,22 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
+        <v>491</v>
+      </c>
+      <c r="E19" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2367,19 +2405,22 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>492</v>
+      </c>
+      <c r="E20" t="s">
+        <v>473</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,458 +2428,465 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>472</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>494</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>495</v>
+      </c>
+      <c r="E21" t="s">
+        <v>473</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>473</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>497</v>
+      </c>
+      <c r="E22" t="s">
+        <v>473</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>452</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>498</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
-        <v>102</v>
+        <v>499</v>
+      </c>
+      <c r="E25" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>500</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>501</v>
+      </c>
+      <c r="E26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>502</v>
+      </c>
+      <c r="E27" t="s">
+        <v>473</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G27" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" t="s">
-        <v>112</v>
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>119</v>
-      </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>121</v>
-      </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>123</v>
-      </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>464</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
-        <v>146</v>
-      </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>509</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
-      <c r="B48" t="s">
-        <v>148</v>
-      </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
-      <c r="B49" t="s">
-        <v>150</v>
-      </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
-      <c r="B50" t="s">
-        <v>152</v>
-      </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2894,13 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2872,100 +2920,100 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>477</v>
+        <v>424</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>479</v>
+        <v>426</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -4461,7 +4509,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4484,114 +4532,114 @@
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4671,7 +4719,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4751,7 +4799,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4831,7 +4879,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4911,7 +4959,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4991,7 +5039,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5071,7 +5119,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5151,7 +5199,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5231,7 +5279,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5311,7 +5359,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5391,7 +5439,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5471,7 +5519,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5551,7 +5599,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5631,7 +5679,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5711,7 +5759,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5791,7 +5839,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5871,7 +5919,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5951,7 +5999,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6031,7 +6079,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6111,7 +6159,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6191,7 +6239,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6271,7 +6319,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6351,7 +6399,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6431,7 +6479,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6511,7 +6559,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6591,7 +6639,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6671,7 +6719,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6751,7 +6799,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6831,7 +6879,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6911,7 +6959,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6991,7 +7039,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7071,7 +7119,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7151,7 +7199,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7231,7 +7279,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7311,7 +7359,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7391,7 +7439,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7471,7 +7519,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7551,7 +7599,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7631,7 +7679,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7711,7 +7759,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7791,7 +7839,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7871,7 +7919,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7951,7 +7999,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -8031,7 +8079,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8111,7 +8159,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8191,7 +8239,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8271,7 +8319,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8351,7 +8399,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8431,7 +8479,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8511,7 +8559,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8591,7 +8639,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8671,7 +8719,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8751,7 +8799,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8831,7 +8879,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8911,7 +8959,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8991,7 +9039,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -9071,7 +9119,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -9151,7 +9199,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -9231,7 +9279,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -9311,7 +9359,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -9391,7 +9439,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -9471,7 +9519,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -9551,7 +9599,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -9631,7 +9679,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -9711,7 +9759,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9791,7 +9839,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -9871,7 +9919,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -9951,7 +9999,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -10031,7 +10079,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -10111,7 +10159,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -10191,7 +10239,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -10271,7 +10319,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -10351,7 +10399,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -10431,7 +10479,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -10511,7 +10559,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -10591,7 +10639,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -10671,7 +10719,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -10751,7 +10799,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -10831,7 +10879,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10911,7 +10959,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10991,7 +11039,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -11071,7 +11119,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -11151,7 +11199,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -11231,7 +11279,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -11311,7 +11359,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -11391,7 +11439,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11471,7 +11519,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11551,7 +11599,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11631,7 +11679,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11711,7 +11759,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11791,7 +11839,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11871,7 +11919,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11951,7 +11999,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -12031,7 +12079,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -12111,7 +12159,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12191,7 +12239,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12271,7 +12319,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -12351,7 +12399,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -12431,7 +12479,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12511,7 +12559,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -12591,7 +12639,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -12671,7 +12719,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12751,7 +12799,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12831,7 +12879,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -12911,7 +12959,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -12991,7 +13039,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -13071,7 +13119,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -13151,7 +13199,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -13231,7 +13279,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13311,7 +13359,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13391,7 +13439,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -13471,7 +13519,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13551,7 +13599,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -13631,7 +13679,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -13711,7 +13759,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -13791,7 +13839,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -13886,97 +13934,97 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -14064,97 +14112,97 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -14242,100 +14290,100 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -14497,100 +14545,100 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -14752,13 +14800,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14789,15 +14837,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -14805,7 +14853,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14813,7 +14861,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14821,7 +14869,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -14829,7 +14877,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.125</v>
@@ -14837,7 +14885,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>-0.19900000000000001</v>
@@ -14845,7 +14893,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>2.4969999999999999</v>
@@ -14853,7 +14901,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>20.512</v>
@@ -14861,7 +14909,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>26</v>
@@ -14869,7 +14917,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -14877,7 +14925,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -14885,7 +14933,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -14908,10 +14956,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15251,103 +15299,103 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -21573,25 +21621,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21599,7 +21647,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1961</v>
@@ -21607,7 +21655,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2018</v>
@@ -21615,7 +21663,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2050</v>
@@ -21623,7 +21671,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -21631,7 +21679,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -21639,7 +21687,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -21647,7 +21695,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -21655,7 +21703,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -21663,7 +21711,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>26</v>
@@ -21671,7 +21719,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -21679,7 +21727,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -21687,7 +21735,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -21695,7 +21743,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>0.70710678118654757</v>
@@ -21703,7 +21751,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>66300000</v>
@@ -21711,7 +21759,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -21719,7 +21767,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -21727,7 +21775,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -21735,10 +21783,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="B20">
         <v>3.8875E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21758,31 +21814,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>495</v>
+        <v>442</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -21803,31 +21859,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="B1" t="s">
-        <v>495</v>
+        <v>442</v>
       </c>
       <c r="C1" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="E1" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="F1" t="s">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -73007,90 +73063,90 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>505</v>
+        <v>452</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -73155,7 +73211,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -73220,7 +73276,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -73282,36 +73338,36 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -73340,7 +73396,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -73369,7 +73425,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -73398,7 +73454,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -73427,7 +73483,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -73456,7 +73512,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -73485,7 +73541,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -73514,7 +73570,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -73543,7 +73599,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -73572,7 +73628,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -73601,7 +73657,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -73630,7 +73686,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -73659,7 +73715,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -73688,7 +73744,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -73717,7 +73773,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -73746,7 +73802,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -73775,7 +73831,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -73819,33 +73875,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -73871,7 +73927,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -73897,7 +73953,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -73923,7 +73979,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -73949,7 +74005,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -73975,7 +74031,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -74001,7 +74057,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -74027,7 +74083,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -74053,7 +74109,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -74079,7 +74135,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -74105,7 +74161,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -74131,7 +74187,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -74157,7 +74213,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -74183,7 +74239,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -74209,7 +74265,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -74235,7 +74291,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -74261,7 +74317,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -74287,7 +74343,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -74313,7 +74369,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -74339,7 +74395,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -74365,7 +74421,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -74391,7 +74447,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -74417,7 +74473,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -74443,7 +74499,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -74469,7 +74525,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -74495,7 +74551,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -74521,7 +74577,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -74547,7 +74603,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -74573,7 +74629,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -74599,7 +74655,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -74625,7 +74681,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -74651,7 +74707,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -74677,7 +74733,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -74703,7 +74759,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -74729,7 +74785,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -74755,7 +74811,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -74781,7 +74837,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -74807,7 +74863,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -74833,7 +74889,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -74859,7 +74915,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -74885,7 +74941,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -74911,7 +74967,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -74937,7 +74993,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -74963,7 +75019,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -74989,7 +75045,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -75015,7 +75071,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -75041,7 +75097,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -75067,7 +75123,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -75093,7 +75149,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -75119,7 +75175,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -75145,7 +75201,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -75171,7 +75227,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -75197,7 +75253,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -75223,7 +75279,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -75249,7 +75305,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -75275,7 +75331,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -75301,7 +75357,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -75327,7 +75383,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -75372,384 +75428,384 @@
   <sheetData>
     <row r="1" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -75901,7 +75957,7 @@
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -76053,7 +76109,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -76205,7 +76261,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -76357,7 +76413,7 @@
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -76509,7 +76565,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -76661,7 +76717,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -76813,7 +76869,7 @@
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -76965,7 +77021,7 @@
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -77117,7 +77173,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -77269,7 +77325,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -77421,7 +77477,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -77573,7 +77629,7 @@
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -77725,7 +77781,7 @@
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -77877,7 +77933,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -78059,7 +78115,7 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -78241,7 +78297,7 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -78423,7 +78479,7 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -78605,7 +78661,7 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -78787,7 +78843,7 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -78969,7 +79025,7 @@
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -79151,7 +79207,7 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -79333,7 +79389,7 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -79515,7 +79571,7 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -79697,7 +79753,7 @@
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -79879,7 +79935,7 @@
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -80061,7 +80117,7 @@
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -80243,7 +80299,7 @@
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -80425,7 +80481,7 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -80607,7 +80663,7 @@
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -80789,7 +80845,7 @@
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -80971,7 +81027,7 @@
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -81153,7 +81209,7 @@
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -81335,7 +81391,7 @@
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -81517,7 +81573,7 @@
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -81699,7 +81755,7 @@
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -81881,7 +81937,7 @@
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -82063,7 +82119,7 @@
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -82245,7 +82301,7 @@
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -82427,7 +82483,7 @@
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -82609,7 +82665,7 @@
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -82791,7 +82847,7 @@
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -82973,7 +83029,7 @@
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -83155,7 +83211,7 @@
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -83337,7 +83393,7 @@
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -83519,7 +83575,7 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -83701,7 +83757,7 @@
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -83883,7 +83939,7 @@
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -84065,7 +84121,7 @@
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -84247,7 +84303,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -84429,7 +84485,7 @@
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -84611,7 +84667,7 @@
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -84793,7 +84849,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -84975,7 +85031,7 @@
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -85157,7 +85213,7 @@
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -85339,7 +85395,7 @@
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -85521,7 +85577,7 @@
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -85703,7 +85759,7 @@
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -85885,7 +85941,7 @@
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -86089,87 +86145,87 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -86249,7 +86305,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -86329,7 +86385,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -86409,7 +86465,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -86489,7 +86545,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -86569,7 +86625,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -86668,111 +86724,111 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -86849,7 +86905,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -86926,7 +86982,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -87003,7 +87059,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -87080,7 +87136,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -87157,7 +87213,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -87234,7 +87290,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -87311,7 +87367,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -87388,7 +87444,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -87465,7 +87521,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -87542,7 +87598,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -87619,7 +87675,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -87696,7 +87752,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -87773,7 +87829,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -87850,7 +87906,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -87927,7 +87983,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -88004,7 +88060,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -88081,7 +88137,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -88158,7 +88214,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -88235,7 +88291,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -88312,7 +88368,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -88389,7 +88445,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -88466,7 +88522,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -88543,7 +88599,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -88620,7 +88676,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -88697,7 +88753,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -88774,7 +88830,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -88851,7 +88907,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -88928,7 +88984,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -89005,7 +89061,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -89082,7 +89138,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -89159,7 +89215,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -89236,7 +89292,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -89313,7 +89369,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -89390,7 +89446,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -89467,7 +89523,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -89544,7 +89600,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -89621,7 +89677,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -89698,7 +89754,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -89775,7 +89831,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -89852,7 +89908,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -89929,7 +89985,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -90006,7 +90062,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -90083,7 +90139,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -90160,7 +90216,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -90237,7 +90293,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -90314,7 +90370,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -90391,7 +90447,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -90468,7 +90524,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -90545,7 +90601,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -90622,7 +90678,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -90699,7 +90755,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -90776,7 +90832,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -90853,7 +90909,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -90930,7 +90986,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -91007,7 +91063,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -91084,7 +91140,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -91161,7 +91217,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -91238,7 +91294,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -91315,7 +91371,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -91392,7 +91448,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -91469,7 +91525,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -91546,7 +91602,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -91623,7 +91679,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -91700,7 +91756,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -91777,7 +91833,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -91854,7 +91910,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -91931,7 +91987,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -92008,7 +92064,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -92085,7 +92141,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -92162,7 +92218,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -92239,7 +92295,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -92316,7 +92372,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -92393,7 +92449,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -92470,7 +92526,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -92547,7 +92603,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -92624,7 +92680,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -92701,7 +92757,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -92778,7 +92834,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -92855,7 +92911,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -92932,7 +92988,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -93009,7 +93065,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -93086,7 +93142,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -93163,7 +93219,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -93240,7 +93296,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -93317,7 +93373,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -93394,7 +93450,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -93471,7 +93527,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -93548,7 +93604,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -93625,7 +93681,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -93702,7 +93758,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -93779,7 +93835,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -93856,7 +93912,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -93933,7 +93989,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -94010,7 +94066,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -94087,7 +94143,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -94164,7 +94220,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -94241,7 +94297,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -94318,7 +94374,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -94395,7 +94451,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -94472,7 +94528,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -94549,7 +94605,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -94626,7 +94682,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -94703,7 +94759,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -94780,7 +94836,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -94857,7 +94913,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -94934,7 +94990,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -95011,7 +95067,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -95088,7 +95144,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -95165,7 +95221,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -95242,7 +95298,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -95319,7 +95375,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -95396,7 +95452,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -95473,7 +95529,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -95550,7 +95606,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -95627,7 +95683,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -95719,375 +95775,375 @@
   <sheetData>
     <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -96455,7 +96511,7 @@
     </row>
     <row r="3" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -96823,7 +96879,7 @@
     </row>
     <row r="4" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -97191,7 +97247,7 @@
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -97559,7 +97615,7 @@
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -97927,7 +97983,7 @@
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -98295,7 +98351,7 @@
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -98663,7 +98719,7 @@
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -99031,7 +99087,7 @@
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -99399,7 +99455,7 @@
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -99767,7 +99823,7 @@
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -100135,7 +100191,7 @@
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -100503,7 +100559,7 @@
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -100871,7 +100927,7 @@
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -101239,7 +101295,7 @@
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -101607,7 +101663,7 @@
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -101975,7 +102031,7 @@
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -102343,7 +102399,7 @@
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -102711,7 +102767,7 @@
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -103079,7 +103135,7 @@
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -103447,7 +103503,7 @@
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -103815,7 +103871,7 @@
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -104183,7 +104239,7 @@
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -104551,7 +104607,7 @@
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -104919,7 +104975,7 @@
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -105287,7 +105343,7 @@
     </row>
     <row r="27" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -105655,7 +105711,7 @@
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -106023,7 +106079,7 @@
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -106391,7 +106447,7 @@
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -106759,7 +106815,7 @@
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -107127,7 +107183,7 @@
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -107495,7 +107551,7 @@
     </row>
     <row r="33" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -107863,7 +107919,7 @@
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -108231,7 +108287,7 @@
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -108599,7 +108655,7 @@
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -108967,7 +109023,7 @@
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -109335,7 +109391,7 @@
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -109703,7 +109759,7 @@
     </row>
     <row r="39" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -110071,7 +110127,7 @@
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -110439,7 +110495,7 @@
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -110807,7 +110863,7 @@
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -111175,7 +111231,7 @@
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B43">
         <v>1</v>
